--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -1,53 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\z_p\yumbo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F10036B-80C6-42F4-8089-6B37C650D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" r:id="rId1"/>
-    <sheet name="tasks" sheetId="2" r:id="rId2"/>
-    <sheet name="links" sheetId="3" r:id="rId3"/>
-    <sheet name="xbday" sheetId="4" r:id="rId4"/>
-    <sheet name="xbsum" sheetId="5" r:id="rId5"/>
-    <sheet name="ubday" sheetId="6" r:id="rId6"/>
-    <sheet name="ubsum" sheetId="7" r:id="rId7"/>
-    <sheet name="expert bounds" sheetId="8" r:id="rId8"/>
-    <sheet name="invoicing periods" sheetId="9" r:id="rId9"/>
-    <sheet name="invoicing periods bounds" sheetId="10" r:id="rId10"/>
-    <sheet name="public holidays" sheetId="11" r:id="rId11"/>
-    <sheet name="misc" sheetId="12" r:id="rId12"/>
-    <sheet name="himg" sheetId="13" r:id="rId13"/>
-    <sheet name="timg" sheetId="14" r:id="rId14"/>
-    <sheet name="simg" sheetId="15" r:id="rId15"/>
-    <sheet name="gimg" sheetId="16" r:id="rId16"/>
-    <sheet name="wimg" sheetId="17" r:id="rId17"/>
-    <sheet name="bimg" sheetId="18" r:id="rId18"/>
+    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -56,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +50,63 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Has Expert any task?</t>
+          <t xml:space="preserve">Has Expert any task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -78,12 +115,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,11 +128,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Is task assign to an Expert?</t>
+          <t xml:space="preserve">Is task assign to an Expert?</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,11 +140,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Should task be included?</t>
+          <t xml:space="preserve">Should task be included?</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +152,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Are date OK?</t>
+          <t xml:space="preserve">Are date OK?</t>
         </r>
       </text>
     </comment>
@@ -124,12 +161,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,11 +174,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Valid expert?</t>
+          <t xml:space="preserve">Valid expert?</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +186,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Valid task?</t>
+          <t xml:space="preserve">Valid task?</t>
         </r>
       </text>
     </comment>
@@ -158,12 +195,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0AA49B8F-221E-4901-95F8-F5C2B986A12A}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,11 +208,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Valid expert?</t>
+          <t xml:space="preserve">Valid expert?</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{BF4A2098-F2CC-42B0-A490-0EE39A5D8FAF}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,11 +220,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Valid task?</t>
+          <t xml:space="preserve">Valid task?</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{96F7B01A-B6AD-4C57-B730-10D36A28CD8A}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +232,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Are date OK?</t>
+          <t xml:space="preserve">Are date OK?</t>
         </r>
       </text>
     </comment>
@@ -203,13 +240,13 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,63 +254,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Are dates OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Are dates OK?</t>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -284,238 +265,241 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Work</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Workdays</t>
-  </si>
-  <si>
-    <t>Avg[h/day]</t>
-  </si>
-  <si>
-    <t>Lower</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>Expert</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Jan.25</t>
-  </si>
-  <si>
-    <t>Feb.25</t>
-  </si>
-  <si>
-    <t>Mar.25</t>
-  </si>
-  <si>
-    <t>Apr.25</t>
-  </si>
-  <si>
-    <t>May.25</t>
-  </si>
-  <si>
-    <t>Jun.25</t>
-  </si>
-  <si>
-    <t>Jul.25</t>
-  </si>
-  <si>
-    <t>Aug.25</t>
-  </si>
-  <si>
-    <t>Sep.25</t>
-  </si>
-  <si>
-    <t>Oct.25</t>
-  </si>
-  <si>
-    <t>Nov.25</t>
-  </si>
-  <si>
-    <t>Dec.25</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>Hours per day</t>
-  </si>
-  <si>
-    <t>Solver</t>
-  </si>
-  <si>
-    <t>Last day</t>
-  </si>
-  <si>
-    <t>highs</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Dpi</t>
-  </si>
-  <si>
-    <t>Bar:color</t>
-  </si>
-  <si>
-    <t>Bar:hatch</t>
-  </si>
-  <si>
-    <t>Bar:alpha</t>
-  </si>
-  <si>
-    <t>Is Start OK?</t>
-  </si>
-  <si>
-    <t>Is End OK?</t>
-  </si>
-  <si>
-    <t>#2ca02c</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Tasks per day</t>
-  </si>
-  <si>
-    <t>#d62728</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>Hours per day stacked</t>
-  </si>
-  <si>
-    <t>Task's Gantt Chart</t>
-  </si>
-  <si>
-    <t>Barh:color</t>
-  </si>
-  <si>
-    <t>Barh:height</t>
-  </si>
-  <si>
-    <t>Barh:alpha</t>
-  </si>
-  <si>
-    <t>#ff7f0e</t>
-  </si>
-  <si>
-    <t>Invoicing Periods Workload</t>
-  </si>
-  <si>
-    <t>Bar:ecolor</t>
-  </si>
-  <si>
-    <t>Bar:capsize</t>
-  </si>
-  <si>
-    <t>#7BC8F6</t>
-  </si>
-  <si>
-    <t>#EE0000</t>
-  </si>
-  <si>
-    <t>Task with bounds</t>
-  </si>
-  <si>
-    <t>Fill:color</t>
-  </si>
-  <si>
-    <t>Fill:hatch</t>
-  </si>
-  <si>
-    <t>Fill:alpha</t>
-  </si>
-  <si>
-    <t>Plot:format</t>
-  </si>
-  <si>
-    <t>Plot:markeredgewidth</t>
-  </si>
-  <si>
-    <t>Step:linewidth</t>
-  </si>
-  <si>
-    <t>#90EE90</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>the 2nd unit</t>
-  </si>
-  <si>
-    <t>SA.Peter</t>
-  </si>
-  <si>
-    <t>golf2.sf</t>
-  </si>
-  <si>
-    <t>golf2.sm</t>
-  </si>
-  <si>
-    <t>tango2.se</t>
-  </si>
-  <si>
-    <t>tango2.sf</t>
-  </si>
-  <si>
-    <t>tango2.sm</t>
-  </si>
-  <si>
-    <t>victor2.se</t>
-  </si>
-  <si>
-    <t>victor2.sf</t>
-  </si>
-  <si>
-    <t>victor2.sm</t>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA.Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the 2nd unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg[h/day]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf2.sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golf2.sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tango2.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tango2.sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tango2.sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">victor2.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">victor2.sm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">victor2.sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jun.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -524,12 +508,27 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -541,7 +540,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -549,7 +548,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -601,7 +600,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -609,80 +608,161 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="168" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -741,276 +821,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="experts"/>
-      <sheetName val="tasks"/>
-      <sheetName val="links"/>
-      <sheetName val="xbday"/>
-      <sheetName val="xbsum"/>
-      <sheetName val="ubday"/>
-      <sheetName val="ubsum"/>
-      <sheetName val="expert bounds"/>
-      <sheetName val="invoicing periods"/>
-      <sheetName val="invoicing periods bounds"/>
-      <sheetName val="public holidays"/>
-      <sheetName val="misc"/>
-      <sheetName val="himg"/>
-      <sheetName val="timg"/>
-      <sheetName val="simg"/>
-      <sheetName val="gimg"/>
-      <sheetName val="wimg"/>
-      <sheetName val="bimg"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="2">
-          <cell r="A2">
-            <v>45658</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>45767</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>45778</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5"/>
-        </row>
-        <row r="6">
-          <cell r="A6"/>
-        </row>
-        <row r="7">
-          <cell r="A7"/>
-        </row>
-        <row r="8">
-          <cell r="A8"/>
-        </row>
-        <row r="9">
-          <cell r="A9"/>
-        </row>
-        <row r="10">
-          <cell r="A10"/>
-        </row>
-        <row r="11">
-          <cell r="A11"/>
-        </row>
-        <row r="12">
-          <cell r="A12"/>
-        </row>
-        <row r="13">
-          <cell r="A13"/>
-        </row>
-        <row r="14">
-          <cell r="A14"/>
-        </row>
-        <row r="15">
-          <cell r="A15"/>
-        </row>
-        <row r="16">
-          <cell r="A16"/>
-        </row>
-        <row r="17">
-          <cell r="A17"/>
-        </row>
-        <row r="18">
-          <cell r="A18"/>
-        </row>
-        <row r="19">
-          <cell r="A19"/>
-        </row>
-        <row r="20">
-          <cell r="A20"/>
-        </row>
-        <row r="21">
-          <cell r="A21"/>
-        </row>
-        <row r="22">
-          <cell r="A22"/>
-        </row>
-        <row r="23">
-          <cell r="A23"/>
-        </row>
-        <row r="24">
-          <cell r="A24"/>
-        </row>
-        <row r="25">
-          <cell r="A25"/>
-        </row>
-        <row r="26">
-          <cell r="A26"/>
-        </row>
-        <row r="27">
-          <cell r="A27"/>
-        </row>
-        <row r="28">
-          <cell r="A28"/>
-        </row>
-        <row r="29">
-          <cell r="A29"/>
-        </row>
-        <row r="30">
-          <cell r="A30"/>
-        </row>
-        <row r="31">
-          <cell r="A31"/>
-        </row>
-        <row r="32">
-          <cell r="A32"/>
-        </row>
-        <row r="33">
-          <cell r="A33"/>
-        </row>
-        <row r="34">
-          <cell r="A34"/>
-        </row>
-        <row r="35">
-          <cell r="A35"/>
-        </row>
-        <row r="36">
-          <cell r="A36"/>
-        </row>
-        <row r="37">
-          <cell r="A37"/>
-        </row>
-        <row r="38">
-          <cell r="A38"/>
-        </row>
-        <row r="39">
-          <cell r="A39"/>
-        </row>
-        <row r="40">
-          <cell r="A40"/>
-        </row>
-        <row r="41">
-          <cell r="A41"/>
-        </row>
-        <row r="42">
-          <cell r="A42"/>
-        </row>
-        <row r="43">
-          <cell r="A43"/>
-        </row>
-        <row r="44">
-          <cell r="A44"/>
-        </row>
-        <row r="45">
-          <cell r="A45"/>
-        </row>
-        <row r="46">
-          <cell r="A46"/>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="2">
-          <cell r="A2">
-            <v>45656</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1063,30 +929,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2"/>
-    <col min="4" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1094,26 +961,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="b">
-        <f>AND(C2:C954)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <f aca="false">AND(C2:C954)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="5" t="b">
-        <f>COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1122,1171 +990,1156 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="25" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="6"/>
-    <col min="5" max="6" width="11.5703125" style="2"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f>AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f>AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="E4" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D5" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="E5" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="E6" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D7" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="E7" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D8" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="E8" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D9" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="E9" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="E10" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="E11" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="E12" s="2" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="E11" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>180</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>180</v>
-      </c>
       <c r="E13" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="F13" s="2" t="b">
-        <f>COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="21"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17"/>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="21"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18"/>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19"/>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="21"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20"/>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21"/>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22"/>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23"/>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24"/>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25"/>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28"/>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29"/>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30"/>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31"/>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32"/>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="21"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33"/>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34"/>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="21"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35"/>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="21"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="23"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="23"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="23"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="23"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="23"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="23"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="23"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="23"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="23"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="23"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="21"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="23"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="23"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="23"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="23"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="23"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="23"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="23"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="23"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="23"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="23"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="21"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="21"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="23"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="23"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="23"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="23"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="23"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="23"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="23"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="23"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="23"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="23"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="21"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="21"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="23"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="23"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="23"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="23"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="23"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="23"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="23"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="23"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="23"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="23"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="21"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="21"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="23"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="23"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="23"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="23"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="23"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="23"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="23"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="23"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="23"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="23"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="21"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="21"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="23"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="23"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="23"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="23"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="23"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="23"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="23"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="23"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="23"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="23"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="21"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="21"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="23"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="23"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="23"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="23"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="23"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="23"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="23"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="23"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="23"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="23"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="21"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="21"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="23"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="23"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="23"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="23"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="23"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="23"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="23"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="23"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="23"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="23"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="21"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="21"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="23"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="23"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="23"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="23"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="23"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="23"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="23"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="23"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="23"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="23"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="21"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="21"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="23"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="23"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="23"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="23"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="23"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="23"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="23"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="23"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="23"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="23"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="21"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="21"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="23"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="23"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="23"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="23"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="23"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="23"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="23"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="23"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="23"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="23"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="21"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="21"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="23"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="23"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="23"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="23"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="23"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="23"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="23"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="23"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="23"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="23"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2295,242 +2148,250 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6"/>
-    <col min="2" max="2" width="11.5703125" style="2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B1" s="12" t="b">
-        <f>AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
         <v>45658</v>
       </c>
       <c r="B2" s="2" t="b">
-        <f>AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
         <v>45767</v>
       </c>
       <c r="B3" s="2" t="b">
-        <f>AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
         <v>45778</v>
       </c>
       <c r="B4" s="2" t="b">
-        <f>AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="6"/>
-    <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
         <v>45656</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="27">
-        <f>MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="27" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
         <v>46002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2538,95 +2399,99 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="2" max="12" width="11.5703125" style="1"/>
-    <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13">
-        <f>misc!A2+1</f>
+      <c r="E2" s="13" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="19">
-        <f>misc!D2</f>
+      <c r="F2" s="19" t="n">
+        <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="6">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="J2" s="29" t="b">
-        <f>AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f>AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2634,94 +2499,98 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="2" max="11" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13">
-        <f>misc!A2+1</f>
+      <c r="E2" s="13" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="19">
-        <f>misc!D2</f>
+      <c r="F2" s="19" t="n">
+        <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="6">
+        <v>53</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="J2" s="29" t="b">
-        <f>AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f>AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2729,85 +2598,89 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="9" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13">
-        <f>misc!A2+1</f>
+      <c r="E2" s="13" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="19">
-        <f>misc!D2</f>
+      <c r="F2" s="19" t="n">
+        <f aca="false">misc!D2</f>
         <v>46002</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="H2" s="29" t="b">
-        <f>AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
       <c r="I2" s="29" t="b">
-        <f>AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2815,66 +2688,70 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="7" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
+        <v>59</v>
+      </c>
+      <c r="F2" s="6" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2882,64 +2759,70 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="6">
+        <v>64</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2947,86 +2830,90 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="11.5703125" style="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="6">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="6">
+        <v>73</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="6" t="n">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -3034,432 +2921,435 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="9" width="11.5703125" style="6"/>
-    <col min="10" max="12" width="11.5703125" style="2"/>
-    <col min="13" max="13" width="11.5703125" style="1"/>
-    <col min="15" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="12" t="b">
+        <f aca="false">AND(J2:J603)</f>
+        <v>1</v>
+      </c>
+      <c r="K1" s="12" t="b">
+        <f aca="false">AND(K2:K608)</f>
+        <v>1</v>
+      </c>
+      <c r="L1" s="12" t="b">
+        <f aca="false">AND(L2:L608)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="13" t="n">
+        <v>45738</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <f aca="false">C2 - B2 +1</f>
+        <v>81</v>
+      </c>
+      <c r="F2" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B2, C2, 'public holidays'!A$2:A$500)</f>
+        <v>57</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <f aca="false">D2/F2</f>
+        <v>0.350877192982456</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G2, 0.25)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <f aca="false">H2 + 0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <f aca="false">C2&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>45739</v>
+      </c>
+      <c r="C3" s="13" t="n">
+        <v>45747</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <f aca="false">C3 - B3 +1</f>
+        <v>9</v>
+      </c>
+      <c r="F3" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B3, C3, 'public holidays'!A$2:A$500)</f>
+        <v>6</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <f aca="false">D3/F3</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G3, 0.25)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <f aca="false">H3 + 0.25</f>
+        <v>1.75</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">C3&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="n">
+        <v>45689</v>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>45704</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <f aca="false">C4 - B4 +1</f>
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B4, C4, 'public holidays'!A$2:A$500)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <f aca="false">D4/F4</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G4, 0.25)</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="16" t="n">
+        <f aca="false">H4 + 0.25</f>
+        <v>6.25</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">C4&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="13" t="n">
+        <v>45705</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>45915</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <f aca="false">C5 - B5 +1</f>
+        <v>211</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B5, C5, 'public holidays'!A$2:A$500)</f>
+        <v>150</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <f aca="false">D5/F5</f>
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G5, 0.25)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <f aca="false">H5 + 0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">C5&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="n">
+        <v>45916</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>45931</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <f aca="false">C6 - B6 +1</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B6, C6, 'public holidays'!A$2:A$500)</f>
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <f aca="false">D6/F6</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G6, 0.25)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <f aca="false">H6 + 0.25</f>
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">C6&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="13" t="n">
+        <v>45703</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>45718</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <f aca="false">C7 - B7 +1</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B7, C7, 'public holidays'!A$2:A$500)</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <f aca="false">D7/F7</f>
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="H7" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G7, 0.25)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <f aca="false">H7 + 0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">C7&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="n">
+        <v>45719</v>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>45889</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <f aca="false">C8 - B8 +1</f>
+        <v>171</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B8, C8, 'public holidays'!A$2:A$500)</f>
+        <v>122</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <f aca="false">D8/F8</f>
+        <v>0.163934426229508</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G8, 0.25)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <f aca="false">H8 + 0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">C8&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>45890</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>45901</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <f aca="false">C9 - B9 +1</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="n">
+        <f aca="false">NETWORKDAYS(B9, C9, 'public holidays'!A$2:A$500)</f>
         <v>8</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="12" t="b">
-        <f>AND(J2:J603)</f>
-        <v>1</v>
-      </c>
-      <c r="K1" s="12" t="b">
-        <f>AND(K2:K608)</f>
-        <v>1</v>
-      </c>
-      <c r="L1" s="12" t="b">
-        <f>AND(L2:L608)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="13">
-        <v>45658</v>
-      </c>
-      <c r="C2" s="13">
-        <v>45738</v>
-      </c>
-      <c r="D2" s="1">
-        <v>20</v>
-      </c>
-      <c r="E2" s="14">
-        <f t="shared" ref="E2" si="0">C2 - B2 +1</f>
-        <v>81</v>
-      </c>
-      <c r="F2" s="14">
-        <f>NETWORKDAYS(B2, C2, '[1]public holidays'!A$2:A$500)</f>
-        <v>57</v>
-      </c>
-      <c r="G2" s="15">
-        <f t="shared" ref="G2" si="1">D2/F2</f>
-        <v>0.35087719298245612</v>
-      </c>
-      <c r="H2" s="16">
-        <f t="shared" ref="H2" si="2">_xlfn.FLOOR.MATH(G2, 0.25)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I2" s="16">
-        <f t="shared" ref="I2" si="3">H2 + 0.25</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="5" t="b">
-        <f>C2&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="b">
-        <f t="shared" ref="L2" si="4">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="13">
-        <v>45739</v>
-      </c>
-      <c r="C3" s="13">
-        <v>45747</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
-        <f t="shared" ref="E3:E6" si="5">C3 - B3 +1</f>
-        <v>9</v>
-      </c>
-      <c r="F3" s="14">
-        <f>NETWORKDAYS(B3, C3, '[1]public holidays'!A$2:A$500)</f>
-        <v>6</v>
-      </c>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G6" si="6">D3/F3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H3" s="16">
-        <f t="shared" ref="H3:H6" si="7">_xlfn.FLOOR.MATH(G3, 0.25)</f>
+      <c r="G9" s="15" t="n">
+        <f aca="false">D9/F9</f>
+        <v>1.25</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <f aca="false">_xlfn.FLOOR.MATH(G9, 0.25)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <f aca="false">H9 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I6" si="8">H3 + 0.25</f>
-        <v>1.75</v>
-      </c>
-      <c r="J3" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <f>C3&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="b">
-        <f t="shared" ref="L3:L6" si="9">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="13">
-        <v>45689</v>
-      </c>
-      <c r="C4" s="13">
-        <v>45704</v>
-      </c>
-      <c r="D4" s="1">
-        <v>60</v>
-      </c>
-      <c r="E4" s="14">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="F4" s="14">
-        <f>NETWORKDAYS(B4, C4, '[1]public holidays'!A$2:A$500)</f>
-        <v>10</v>
-      </c>
-      <c r="G4" s="15">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="8"/>
-        <v>6.25</v>
-      </c>
-      <c r="J4" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="b">
-        <f>C4&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="13">
-        <v>45705</v>
-      </c>
-      <c r="C5" s="13">
-        <v>45915</v>
-      </c>
-      <c r="D5" s="1">
-        <v>60</v>
-      </c>
-      <c r="E5" s="14">
-        <f t="shared" si="5"/>
-        <v>211</v>
-      </c>
-      <c r="F5" s="14">
-        <f>NETWORKDAYS(B5, C5, '[1]public holidays'!A$2:A$500)</f>
-        <v>150</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="6"/>
-        <v>0.4</v>
-      </c>
-      <c r="H5" s="16">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
-      </c>
-      <c r="I5" s="16">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <f>C5&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="13">
-        <v>45916</v>
-      </c>
-      <c r="C6" s="13">
-        <v>45931</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="F6" s="14">
-        <f>NETWORKDAYS(B6, C6, '[1]public holidays'!A$2:A$500)</f>
-        <v>12</v>
-      </c>
-      <c r="G6" s="15">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="8"/>
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <f>C6&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="13">
-        <v>45703</v>
-      </c>
-      <c r="C7" s="13">
-        <v>45718</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="14">
-        <f t="shared" ref="E7" si="10">C7 - B7 +1</f>
-        <v>16</v>
-      </c>
-      <c r="F7" s="14">
-        <f>NETWORKDAYS(B7, C7, '[1]public holidays'!A$2:A$500)</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" ref="G7" si="11">D7/F7</f>
-        <v>2</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" ref="H7" si="12">_xlfn.FLOOR.MATH(G7, 0.25)</f>
-        <v>2</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" ref="I7" si="13">H7 + 0.25</f>
-        <v>2.25</v>
-      </c>
-      <c r="J7" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <f>C7&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="b">
-        <f t="shared" ref="L7" si="14">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="13">
-        <v>45719</v>
-      </c>
-      <c r="C8" s="13">
-        <v>45889</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" ref="E8:E12" si="15">C8 - B8 +1</f>
-        <v>171</v>
-      </c>
-      <c r="F8" s="14">
-        <f>NETWORKDAYS(B8, C8, '[1]public holidays'!A$2:A$500)</f>
-        <v>122</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" ref="G8:G12" si="16">D8/F8</f>
-        <v>0.16393442622950818</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" ref="H8:H12" si="17">_xlfn.FLOOR.MATH(G8, 0.25)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8:I12" si="18">H8 + 0.25</f>
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <f>C8&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <f t="shared" ref="L8:L12" si="19">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="13">
-        <v>45890</v>
-      </c>
-      <c r="C9" s="13">
-        <v>45901</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="F9" s="14">
-        <f>NETWORKDAYS(B9, C9, '[1]public holidays'!A$2:A$500)</f>
-        <v>8</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="16"/>
-        <v>1.25</v>
-      </c>
-      <c r="H9" s="16">
-        <f t="shared" si="17"/>
-        <v>1.25</v>
-      </c>
-      <c r="I9" s="16">
-        <f t="shared" si="18"/>
-        <v>1.5</v>
-      </c>
-      <c r="J9" s="5" t="b">
-        <f>COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="b">
-        <f>C9&gt;[1]misc!$A$2</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="b">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="n">
+        <f aca="false">COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">C9&gt;misc!$A$2</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="1"/>
@@ -3468,11 +3358,8 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="1"/>
@@ -3481,11 +3368,8 @@
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="1"/>
@@ -3494,11 +3378,8 @@
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="1"/>
@@ -3507,11 +3388,8 @@
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="1"/>
@@ -3520,11 +3398,8 @@
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="1"/>
@@ -3533,11 +3408,8 @@
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="1"/>
@@ -3546,11 +3418,8 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="1"/>
@@ -3559,11 +3428,8 @@
       <c r="G17" s="15"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="1"/>
@@ -3572,24 +3438,22 @@
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Planned UAT Date must be in the correct date format." promptTitle="Date" prompt=" " sqref="A10 A13 B2" xr:uid="{025EE4B8-7FBD-4022-B9BA-EAFF191D3A9A}">
+    <dataValidation allowBlank="true" error="Planned UAT Date must be in the correct date format." errorStyle="stop" errorTitle="Invalid Date" operator="greaterThanOrEqual" prompt=" " promptTitle="Date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2 A10 A13" type="date">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Planned Go-Live Date must be in the correct date format." promptTitle="Date" prompt=" " sqref="B15 B12 B8" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="true" error="Planned Go-Live Date must be in the correct date format." errorStyle="stop" errorTitle="Invalid Date" operator="greaterThanOrEqual" prompt=" " promptTitle="Date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B8 B12 B15" type="date">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3598,222 +3462,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="2"/>
-    <col min="5" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="b">
-        <f>AND(C2:C589)</f>
+        <f aca="false">AND(C2:C589)</f>
         <v>1</v>
       </c>
       <c r="D1" s="4" t="b">
-        <f>AND(D2:D589)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(D2:D589)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C5" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C8" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="17" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$603, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="17" t="n">
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="n">
+        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="14"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="14"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="14"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="14"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="14"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3822,360 +3690,363 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="6" width="11.5703125" style="6"/>
-    <col min="7" max="9" width="11.5703125" style="2"/>
-    <col min="10" max="10" width="11.5703125" style="1"/>
-    <col min="14" max="16384" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="4" t="b">
+        <f aca="false">AND(G2:G926)</f>
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="b">
+        <f aca="false">AND(H2:H926)</f>
+        <v>1</v>
+      </c>
+      <c r="I1" s="12" t="b">
+        <f aca="false">AND(I2:I896)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="4" t="b">
-        <f>AND(G2:G926)</f>
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="b">
-        <f>AND(H2:H926)</f>
-        <v>1</v>
-      </c>
-      <c r="I1" s="12" t="b">
-        <f>AND(I2:I896)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="13">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>45658</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="13" t="n">
         <v>45738</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="16" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B2)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B2)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
-        <f t="shared" ref="I2" si="0">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="13">
+        <v>13</v>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>45739</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="13" t="n">
         <v>45747</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="16" t="n">
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B3)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B3)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
-        <f t="shared" ref="I3:I12" si="1">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="13">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>45689</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="13" t="n">
         <v>45704</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="16" t="n">
         <v>6.25</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B4)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B4)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="13">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>45705</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="13" t="n">
         <v>45915</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="16" t="n">
         <v>0.25</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="16" t="n">
         <v>0.5</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B5)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B5)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="13">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>45916</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="13" t="n">
         <v>45931</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="16" t="n">
         <v>1.75</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B6)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B6)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="13">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="n">
         <v>45703</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="13" t="n">
         <v>45718</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="16" t="n">
         <v>2.25</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B7)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B7)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="13">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>45719</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="13" t="n">
         <v>45889</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="16" t="n">
         <v>0.25</v>
       </c>
       <c r="G8" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B8)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B8)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="13">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13" t="n">
         <v>45890</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="13" t="n">
         <v>45901</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="16" t="n">
         <v>1.25</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="16" t="n">
         <v>1.5</v>
       </c>
       <c r="G9" s="2" t="b">
-        <f>COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f>COUNTIF(tasks!$A$2:$A$625,B9)&gt;0</f>
+        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B9)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I9" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="1"/>
@@ -4183,7 +4054,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="1"/>
@@ -4191,7 +4062,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="1"/>
@@ -4199,7 +4070,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="1"/>
@@ -4207,7 +4078,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="1"/>
@@ -4215,7 +4086,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="1"/>
@@ -4223,7 +4094,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="1"/>
@@ -4231,7 +4102,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="1"/>
@@ -4239,7 +4110,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="1"/>
@@ -4247,7 +4118,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="1"/>
@@ -4255,7 +4126,7 @@
       <c r="I27" s="20"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="1"/>
@@ -4263,7 +4134,7 @@
       <c r="I28" s="20"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="1"/>
@@ -4271,7 +4142,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="1"/>
@@ -4279,7 +4150,7 @@
       <c r="I30" s="20"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="1"/>
@@ -4287,7 +4158,7 @@
       <c r="I31" s="20"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="1"/>
@@ -4295,7 +4166,7 @@
       <c r="I32" s="20"/>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="1"/>
@@ -4303,7 +4174,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="1"/>
@@ -4311,7 +4182,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="1"/>
@@ -4319,7 +4190,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="1"/>
@@ -4327,7 +4198,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="1"/>
@@ -4335,7 +4206,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="1"/>
@@ -4343,7 +4214,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="1"/>
@@ -4351,7 +4222,7 @@
       <c r="I39" s="20"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="1"/>
@@ -4359,7 +4230,7 @@
       <c r="I40" s="20"/>
       <c r="J40" s="13"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="1"/>
@@ -4367,7 +4238,7 @@
       <c r="I41" s="20"/>
       <c r="J41" s="13"/>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="1"/>
@@ -4375,7 +4246,7 @@
       <c r="I42" s="20"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="1"/>
@@ -4383,7 +4254,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="1"/>
@@ -4391,7 +4262,7 @@
       <c r="I44" s="20"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="1"/>
@@ -4399,7 +4270,7 @@
       <c r="I45" s="20"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="1"/>
@@ -4407,7 +4278,7 @@
       <c r="I46" s="20"/>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="1"/>
@@ -4415,7 +4286,7 @@
       <c r="I47" s="20"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="1"/>
@@ -4423,7 +4294,7 @@
       <c r="I48" s="20"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="1"/>
@@ -4431,7 +4302,7 @@
       <c r="I49" s="20"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="1"/>
@@ -4439,7 +4310,7 @@
       <c r="I50" s="20"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="1"/>
@@ -4447,7 +4318,7 @@
       <c r="I51" s="20"/>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="1"/>
@@ -4455,7 +4326,7 @@
       <c r="I52" s="20"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="1"/>
@@ -4463,7 +4334,7 @@
       <c r="I53" s="20"/>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="1"/>
@@ -4471,7 +4342,7 @@
       <c r="I54" s="20"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="1"/>
@@ -4479,7 +4350,7 @@
       <c r="I55" s="20"/>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="1"/>
@@ -4487,7 +4358,7 @@
       <c r="I56" s="20"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="1"/>
@@ -4495,7 +4366,7 @@
       <c r="I57" s="20"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="1"/>
@@ -4503,7 +4374,7 @@
       <c r="I58" s="20"/>
       <c r="J58" s="13"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="1"/>
@@ -4511,7 +4382,7 @@
       <c r="I59" s="20"/>
       <c r="J59" s="13"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="1"/>
@@ -4519,7 +4390,7 @@
       <c r="I60" s="20"/>
       <c r="J60" s="13"/>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="1"/>
@@ -4527,7 +4398,7 @@
       <c r="I61" s="20"/>
       <c r="J61" s="13"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="1"/>
@@ -4535,124 +4406,125 @@
       <c r="I62" s="20"/>
       <c r="J62" s="13"/>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I63" s="20"/>
       <c r="J63" s="13"/>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I64" s="20"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I65" s="20"/>
       <c r="J65" s="13"/>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I66" s="20"/>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I67" s="20"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I68" s="20"/>
       <c r="J68" s="13"/>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I69" s="20"/>
       <c r="J69" s="13"/>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I70" s="20"/>
       <c r="J70" s="13"/>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I71" s="20"/>
       <c r="J71" s="13"/>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I72" s="20"/>
       <c r="J72" s="13"/>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I73" s="20"/>
       <c r="J73" s="13"/>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I74" s="20"/>
       <c r="J74" s="13"/>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I75" s="20"/>
       <c r="J75" s="13"/>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I76" s="20"/>
       <c r="J76" s="13"/>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I77" s="20"/>
       <c r="J77" s="13"/>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I78" s="20"/>
       <c r="J78" s="13"/>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I79" s="20"/>
       <c r="J79" s="13"/>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I80" s="20"/>
       <c r="J80" s="13"/>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I81" s="20"/>
       <c r="J81" s="13"/>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I82" s="20"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I83" s="20"/>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I84" s="20"/>
       <c r="J84" s="13"/>
     </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I85" s="20"/>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I86" s="20"/>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I87" s="20"/>
       <c r="J87" s="13"/>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I88" s="20"/>
       <c r="J88" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Planned UAT Date must be in the correct date format." promptTitle="Date" prompt=" " sqref="C2" xr:uid="{DE97BB29-4FCB-4917-9557-21DA523CF2E4}">
+    <dataValidation allowBlank="true" error="Planned UAT Date must be in the correct date format." errorStyle="stop" errorTitle="Invalid Date" operator="greaterThanOrEqual" prompt=" " promptTitle="Date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2" type="date">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Planned Go-Live Date must be in the correct date format." promptTitle="Date" prompt=" " sqref="C8" xr:uid="{33566861-0BD5-40C6-A590-68BAB97FD5D3}">
+    <dataValidation allowBlank="true" error="Planned Go-Live Date must be in the correct date format." errorStyle="stop" errorTitle="Invalid Date" operator="greaterThanOrEqual" prompt=" " promptTitle="Date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8" type="date">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4661,390 +4533,394 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="5" width="11.5703125" style="6"/>
-    <col min="6" max="6" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5052,454 +4928,458 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="11.5703125" style="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5507,390 +5387,394 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="5" width="11.5703125" style="6"/>
-    <col min="6" max="6" width="11.5703125" style="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5898,192 +5782,196 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="5" width="11.5703125" style="6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6091,362 +5979,366 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="6"/>
-    <col min="4" max="4" width="11.5703125" style="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="b">
-        <f>AND(D2:D908)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(D2:D908)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="22">
+        <v>22</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <v>45637</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="22" t="n">
         <v>45672</v>
       </c>
       <c r="D2" s="2" t="b">
-        <f t="shared" ref="D2:D13" si="0">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="22">
+        <v>23</v>
+      </c>
+      <c r="B3" s="22" t="n">
         <v>45673</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="22" t="n">
         <v>45701</v>
       </c>
       <c r="D3" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="24">
+        <v>24</v>
+      </c>
+      <c r="B4" s="24" t="n">
         <v>45702</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="24" t="n">
         <v>45732</v>
       </c>
       <c r="D4" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="24">
+        <v>25</v>
+      </c>
+      <c r="B5" s="24" t="n">
         <v>45733</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="24" t="n">
         <v>45761</v>
       </c>
       <c r="D5" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="24">
+        <v>26</v>
+      </c>
+      <c r="B6" s="24" t="n">
         <v>45762</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="24" t="n">
         <v>45795</v>
       </c>
       <c r="D6" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="24">
+        <v>27</v>
+      </c>
+      <c r="B7" s="24" t="n">
         <v>45796</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="24" t="n">
         <v>45826</v>
       </c>
       <c r="D7" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="n">
         <v>45827</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="24" t="n">
         <v>45855</v>
       </c>
       <c r="D8" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="24">
+        <v>29</v>
+      </c>
+      <c r="B9" s="24" t="n">
         <v>45856</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="24" t="n">
         <v>45886</v>
       </c>
       <c r="D9" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13" t="n">
         <v>45887</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="13" t="n">
         <v>45915</v>
       </c>
       <c r="D10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="n">
         <v>45916</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="13" t="n">
         <v>45945</v>
       </c>
       <c r="D11" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="13">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="n">
         <v>45946</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="13" t="n">
         <v>45973</v>
       </c>
       <c r="D12" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13" t="n">
         <v>45974</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="13" t="n">
         <v>46002</v>
       </c>
       <c r="D13" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -263,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -485,6 +486,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -2920,6 +2924,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2928,7 +2991,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3022,7 +3085,7 @@
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
@@ -3060,15 +3123,15 @@
         <f aca="false">H3 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
@@ -3106,15 +3169,15 @@
         <f aca="false">H4 + 0.25</f>
         <v>6.25</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
@@ -3152,15 +3215,15 @@
         <f aca="false">H5 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="2" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
@@ -3198,15 +3261,15 @@
         <f aca="false">H6 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
@@ -3244,15 +3307,15 @@
         <f aca="false">H7 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
@@ -3290,15 +3353,15 @@
         <f aca="false">H8 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
@@ -3336,15 +3399,15 @@
         <f aca="false">H9 + 0.25</f>
         <v>1.5</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="2" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>

--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -52,62 +50,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Has Expert any task?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid expert?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Valid period?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -241,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -263,8 +205,64 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid expert?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valid period?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Are dates OK?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -977,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$A$1:$A$524, A2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -994,1355 +992,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F181"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="21"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="21"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="21"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="21"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="21"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="21"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="21"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="21"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="21"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="21"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="21"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="21"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="21"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="21"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="21"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="21"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="21"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="21"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="21"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="21"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="23"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="23"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="21"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="21"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="23"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="23"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="23"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="23"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="23"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="23"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="23"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="23"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="23"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="23"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="21"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="21"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="23"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="23"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="23"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="23"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="23"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="23"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="23"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="23"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="23"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="23"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="21"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="21"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="23"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="23"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="23"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="23"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="23"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="23"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="23"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="23"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="23"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="23"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="21"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="21"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="23"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="23"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="23"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="23"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="23"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="23"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="23"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="23"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="23"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="23"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="21"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="21"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="23"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="23"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="23"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="23"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="23"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="23"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="23"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="23"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="23"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="23"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="21"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="21"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="23"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="23"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="23"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="23"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="23"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="23"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="23"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="23"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="23"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="23"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="21"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="21"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="23"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="23"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="23"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="23"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="23"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="23"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="23"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="23"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="23"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="23"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="21"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="21"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="23"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="23"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="23"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="23"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="23"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="23"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="23"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="23"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="23"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="23"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="21"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="21"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="23"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="23"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="23"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="23"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="23"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="23"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="23"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="23"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="23"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="21"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="21"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="23"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="23"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="23"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="23"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="23"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="23"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="23"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="23"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="23"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="23"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="21"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="21"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="23"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="23"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="23"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="23"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="23"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="23"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="23"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="23"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="23"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="23"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="21"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="21"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="23"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="23"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="23"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="23"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="23"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="23"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="23"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="23"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="23"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="23"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="12" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B4" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2387,7 +1036,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="27" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C600))</f>
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C600))</f>
         <v>46002</v>
       </c>
     </row>
@@ -2402,7 +1051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2502,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2601,7 +1250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2691,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2762,7 +1411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2833,7 +1482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2924,7 +1573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2990,7 +1639,7 @@
   </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3062,7 +1711,7 @@
         <v>81</v>
       </c>
       <c r="F2" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B2, C2, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B2, C2, holiday!A$2:A$500)</f>
         <v>57</v>
       </c>
       <c r="G2" s="15" t="n">
@@ -3078,7 +1727,7 @@
         <v>0.5</v>
       </c>
       <c r="J2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K2" s="2" t="b">
@@ -3108,7 +1757,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B3, C3, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B3, C3, holiday!A$2:A$500)</f>
         <v>6</v>
       </c>
       <c r="G3" s="15" t="n">
@@ -3124,7 +1773,7 @@
         <v>1.75</v>
       </c>
       <c r="J3" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K3" s="2" t="b">
@@ -3154,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B4, C4, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B4, C4, holiday!A$2:A$500)</f>
         <v>10</v>
       </c>
       <c r="G4" s="15" t="n">
@@ -3170,7 +1819,7 @@
         <v>6.25</v>
       </c>
       <c r="J4" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K4" s="2" t="b">
@@ -3200,7 +1849,7 @@
         <v>211</v>
       </c>
       <c r="F5" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B5, C5, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B5, C5, holiday!A$2:A$500)</f>
         <v>150</v>
       </c>
       <c r="G5" s="15" t="n">
@@ -3216,7 +1865,7 @@
         <v>0.5</v>
       </c>
       <c r="J5" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K5" s="2" t="b">
@@ -3246,7 +1895,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B6, C6, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B6, C6, holiday!A$2:A$500)</f>
         <v>12</v>
       </c>
       <c r="G6" s="15" t="n">
@@ -3262,7 +1911,7 @@
         <v>1.75</v>
       </c>
       <c r="J6" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K6" s="2" t="b">
@@ -3292,7 +1941,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B7, C7, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B7, C7, holiday!A$2:A$500)</f>
         <v>10</v>
       </c>
       <c r="G7" s="15" t="n">
@@ -3308,7 +1957,7 @@
         <v>2.25</v>
       </c>
       <c r="J7" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K7" s="2" t="b">
@@ -3338,7 +1987,7 @@
         <v>171</v>
       </c>
       <c r="F8" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B8, C8, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B8, C8, holiday!A$2:A$500)</f>
         <v>122</v>
       </c>
       <c r="G8" s="15" t="n">
@@ -3354,7 +2003,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K8" s="2" t="b">
@@ -3384,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="n">
-        <f aca="false">NETWORKDAYS(B9, C9, 'public holidays'!A$2:A$500)</f>
+        <f aca="false">NETWORKDAYS(B9, C9, holiday!A$2:A$500)</f>
         <v>8</v>
       </c>
       <c r="G9" s="15" t="n">
@@ -3400,7 +2049,7 @@
         <v>1.5</v>
       </c>
       <c r="J9" s="2" t="b">
-        <f aca="false">COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(assign!$B$1:$B$526, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="K9" s="2" t="b">
@@ -3567,11 +2216,11 @@
         <v>13</v>
       </c>
       <c r="C2" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D2" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B2) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B2) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3583,11 +2232,11 @@
         <v>12</v>
       </c>
       <c r="C3" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D3" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B3) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B3) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3599,11 +2248,11 @@
         <v>14</v>
       </c>
       <c r="C4" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D4" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B4) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B4) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3615,11 +2264,11 @@
         <v>16</v>
       </c>
       <c r="C5" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D5" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B5) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B5) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3631,11 +2280,11 @@
         <v>15</v>
       </c>
       <c r="C6" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D6" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B6) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B6) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3647,11 +2296,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D7" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B7) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B7) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3663,11 +2312,11 @@
         <v>19</v>
       </c>
       <c r="C8" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D8" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B8) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B8) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3679,11 +2328,11 @@
         <v>18</v>
       </c>
       <c r="C9" s="17" t="n">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="D9" s="17" t="n">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$603, B9) &gt; 0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$603, B9) &gt; 0</f>
         <v>1</v>
       </c>
     </row>
@@ -3825,11 +2474,11 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B2)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B2)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
@@ -3857,11 +2506,11 @@
         <v>1.75</v>
       </c>
       <c r="G3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H3" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B3)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B3)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
@@ -3889,11 +2538,11 @@
         <v>6.25</v>
       </c>
       <c r="G4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H4" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B4)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B4)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
@@ -3921,11 +2570,11 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H5" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B5)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B5)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
@@ -3953,11 +2602,11 @@
         <v>1.75</v>
       </c>
       <c r="G6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H6" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B6)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B6)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I6" s="2" t="b">
@@ -3985,11 +2634,11 @@
         <v>2.25</v>
       </c>
       <c r="G7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H7" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B7)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B7)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I7" s="2" t="b">
@@ -4017,11 +2666,11 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H8" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B8)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B8)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
@@ -4049,11 +2698,11 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
+        <f aca="false">COUNTIF(expert!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
       <c r="H9" s="2" t="b">
-        <f aca="false">COUNTIF(tasks!$A$2:$A$625,B9)&gt;0</f>
+        <f aca="false">COUNTIF(task!$A$2:$A$625,B9)&gt;0</f>
         <v>1</v>
       </c>
       <c r="I9" s="2" t="b">
@@ -4600,401 +3249,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5449,402 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6041,7 +3900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -6404,4 +4263,1353 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F181"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="25" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <f aca="false">COUNTIF(expert!$A$2:$A$921, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <f aca="false">COUNTIF(period!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="21"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="21"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="21"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="21"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="21"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="21"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="21"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="21"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="21"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="21"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="21"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="21"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="21"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="21"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="21"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="21"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="21"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="21"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="21"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="21"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="21"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="23"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="23"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="21"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="21"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="23"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="23"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="23"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="23"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="23"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="23"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="23"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="23"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="23"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="23"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="21"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="21"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="23"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="23"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="23"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="23"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="23"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="23"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="23"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="23"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="23"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="23"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="21"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="21"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="23"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="23"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="23"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="23"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="23"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="23"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="23"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="23"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="23"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="23"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="21"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="21"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="23"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="23"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="23"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="23"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="23"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="23"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="23"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="23"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="23"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="23"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="21"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="21"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="23"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="23"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="23"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="23"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="23"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="23"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="23"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="23"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="23"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="23"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="21"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="21"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="23"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="23"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="23"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="23"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="23"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="23"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="23"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="23"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="23"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="23"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="21"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="21"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="23"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="23"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="23"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="23"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="23"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="23"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="23"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="23"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="23"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="23"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="21"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="21"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="23"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="23"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="23"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="23"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="23"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="23"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="23"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="23"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="23"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="23"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="21"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="21"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="23"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="23"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="23"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="23"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="23"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="23"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="23"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="23"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="23"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="23"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="21"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="21"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="23"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="23"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="23"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="23"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="23"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="23"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="23"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="23"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="23"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="23"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="21"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="21"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="23"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="23"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="23"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="23"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="23"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="23"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="23"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="23"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="23"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="23"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="21"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="21"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="23"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="23"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="23"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="23"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="23"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="23"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="23"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="23"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="23"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="23"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1580,7 +1580,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5430,7 +5430,7 @@
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -381,10 +381,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -942,7 +948,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -996,10 +1002,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,8 +1013,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1021,8 +1027,11 @@
       <c r="C1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="8" t="s">
         <v>39</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1033,9 +1042,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="27" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="27" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C600))</f>
         <v>46002</v>
       </c>
@@ -1059,7 +1071,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,13 +1086,13 @@
         <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1089,19 +1101,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,14 +1131,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="19" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1136,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1159,7 +1171,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1170,16 +1182,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1188,19 +1200,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,14 +1230,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="19" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1235,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1270,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1269,16 +1281,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1287,13 +1299,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1323,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="19" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46002</v>
       </c>
       <c r="G2" s="6" t="n">
@@ -1322,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1348,7 +1360,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,25 +1371,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,7 +1403,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.9</v>
@@ -1419,7 +1431,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1430,25 +1442,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,10 +1474,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>4</v>
@@ -1490,7 +1502,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1503,34 +1515,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,16 +1556,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.5</v>
@@ -1580,8 +1592,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1592,19 +1604,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,7 +1652,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="D1:D2 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2181,7 +2193,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="D1:D2 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2409,7 +2421,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="D1:D2 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3252,7 +3264,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3711,7 +3723,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3908,7 +3920,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4273,7 +4285,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5431,7 +5443,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -393,6 +394,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -402,6 +406,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -409,12 +419,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -641,7 +645,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -755,10 +759,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,7 +948,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1068,31 +1068,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1100,65 +1099,47 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="19" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="19" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="29" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1168,87 +1149,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="19" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1267,79 +1203,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="19" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46002</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="29" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1357,16 +1256,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,43 +1273,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1428,59 +1300,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1499,79 +1353,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1590,46 +1406,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1652,7 +1523,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="D1:D2 G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2193,7 +2064,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="D1:D2 A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2421,7 +2292,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="D1:D2 F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3264,7 +3135,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3723,7 +3594,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3920,7 +3791,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4156,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5443,7 +5314,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
+++ b/ampl-data-input-excel/19-SA-Peter/19-SA-Peter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -382,7 +382,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -948,7 +948,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1481,8 +1481,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="1" sqref="D1:D2 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2064,7 +2064,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="D1:D2 A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,7 +2292,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="1" sqref="D1:D2 F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3135,7 +3135,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3594,7 +3594,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3791,7 +3791,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4156,7 +4156,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="D1:D2 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5314,7 +5314,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
